--- a/Supplementary_1.xlsx
+++ b/Supplementary_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamun/FIU/PhD/Feature_selection/Subtype-classification/L1-Norm/Publications/2021_PLOSCompBio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D75B52-5F46-B744-871E-CEDA2073A7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B8C172-5214-2C4C-B621-3DAC9CFDBBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="17380" xr2:uid="{B97A923F-D08E-534E-A95D-E368107052E0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17380" xr2:uid="{B97A923F-D08E-534E-A95D-E368107052E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -738,37 +738,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -779,6 +752,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -788,7 +797,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -796,21 +805,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,4892 +1150,4895 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF80FFD-9526-FD4A-B1FA-22C748683371}">
   <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>95666084</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>95668715</v>
       </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>43027853</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>43039547</v>
       </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>1546665</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>1620113</v>
       </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>7754090</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>7778928</v>
       </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>86722091</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>86741059</v>
       </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>100337595</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>100350707</v>
       </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>126543947</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>126610948</v>
       </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>14470465</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>14888169</v>
       </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>72323123</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>72640472</v>
       </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>42475543</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>42495336</v>
       </c>
-      <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>37309185</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>37347031</v>
       </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>102973522</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>102988856</v>
       </c>
-      <c r="E14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>9189011</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>9202854</v>
       </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>118833700</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>118835110</v>
       </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>149284782</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>149333653</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>160024953</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>160026794</v>
       </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>178969390</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>178990116</v>
       </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>63390136</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>63438320</v>
       </c>
-      <c r="E20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>19453209</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>19455173</v>
       </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>218255319</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>218257366</v>
       </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>106270144</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>106272899</v>
       </c>
-      <c r="E23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>158170752</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>158202877</v>
       </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="A25" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>1294551</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>1299166</v>
       </c>
-      <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>76654169</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>76656712</v>
       </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>54126098</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>54132843</v>
       </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>51329654</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <v>51335324</v>
       </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="A29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>84965682</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <v>85011277</v>
       </c>
-      <c r="E29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="A30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>72021851</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>72034092</v>
       </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="A31" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>178413939</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <v>178440243</v>
       </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>5696220</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>5708095</v>
       </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" t="s">
+      <c r="A33" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>5938751</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <v>5944984</v>
       </c>
-      <c r="E33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" t="s">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>39619613</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <v>39622513</v>
       </c>
-      <c r="E34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" t="s">
+      <c r="A35" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <v>241808312</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="8">
         <v>241812016</v>
       </c>
-      <c r="E35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" t="s">
+      <c r="A36" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="8">
         <v>14818843</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="8">
         <v>15014430</v>
       </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" t="s">
+      <c r="A37" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
         <v>44175973</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="8">
         <v>44186717</v>
       </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" t="s">
+      <c r="A38" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="8">
         <v>27506838</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="8">
         <v>27698174</v>
       </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" t="s">
+      <c r="A39" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="8">
         <v>54918863</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <v>54929189</v>
       </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" t="s">
+      <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="8">
         <v>173562478</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <v>173573199</v>
       </c>
-      <c r="E40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" t="s">
+      <c r="A41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="8">
         <v>68531690</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="8">
         <v>68533530</v>
       </c>
-      <c r="E41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" t="s">
+      <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="8">
         <v>53880293</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="8">
         <v>53881051</v>
       </c>
-      <c r="E42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" t="s">
+      <c r="A43" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="8">
         <v>15787787</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="8">
         <v>15788205</v>
       </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" t="s">
+      <c r="A44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="8">
         <v>8050450</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="8">
         <v>8053484</v>
       </c>
-      <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" t="s">
+      <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="8">
         <v>1571353</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="8">
         <v>1599184</v>
       </c>
-      <c r="E45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" t="s">
+      <c r="A46" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="8">
         <v>107240692</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="8">
         <v>107326964</v>
       </c>
-      <c r="E46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" t="s">
+      <c r="A47" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="8">
         <v>5932687</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="8">
         <v>6001275</v>
       </c>
-      <c r="E47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" t="s">
+      <c r="A48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="8">
         <v>127794533</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="8">
         <v>128101253</v>
       </c>
-      <c r="E48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" t="s">
+      <c r="A49" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="8">
         <v>102828055</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="8">
         <v>102844075</v>
       </c>
-      <c r="E49" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" t="s">
+      <c r="A50" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="8">
         <v>1528364</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="8">
         <v>1528911</v>
       </c>
-      <c r="E50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" t="s">
+      <c r="A51" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="8">
         <v>76491652</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="8">
         <v>76493918</v>
       </c>
-      <c r="E51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" t="s">
+      <c r="A52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="8">
         <v>149284782</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="8">
         <v>149333653</v>
       </c>
-      <c r="E52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" t="s">
+      <c r="A53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="8">
         <v>37240887</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="8">
         <v>37242049</v>
       </c>
-      <c r="E53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E53" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" t="s">
+      <c r="A54" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="8">
         <v>630891</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="8">
         <v>663706</v>
       </c>
-      <c r="E54" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" t="s">
+      <c r="A55" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="8">
         <v>63390136</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="8">
         <v>63438320</v>
       </c>
-      <c r="E55" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E55" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" t="s">
+      <c r="A56" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="8">
         <v>37556158</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="8">
         <v>37567095</v>
       </c>
-      <c r="E56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E56" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" t="s">
+      <c r="A57" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="8">
         <v>45706250</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="8">
         <v>45715952</v>
       </c>
-      <c r="E57" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E57" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" t="s">
+      <c r="A58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="8">
         <v>16152941</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="8">
         <v>16170869</v>
       </c>
-      <c r="E58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E58" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" t="s">
+      <c r="A59" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="8">
         <v>105093609</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="8">
         <v>105099004</v>
       </c>
-      <c r="E59" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E59" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" t="s">
+      <c r="A60" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="8">
         <v>36354749</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="8">
         <v>36355114</v>
       </c>
-      <c r="E60" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E60" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" t="s">
+      <c r="A61" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="8">
         <v>82044336</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="8">
         <v>82139631</v>
       </c>
-      <c r="E61" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" t="s">
+      <c r="A62" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="8">
         <v>9519449</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="8">
         <v>9520199</v>
       </c>
-      <c r="E62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E62" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" t="s">
+      <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="8">
         <v>63367328</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="8">
         <v>63381629</v>
       </c>
-      <c r="E63" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" t="s">
+      <c r="A64" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="8">
         <v>57993545</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="8">
         <v>57994525</v>
       </c>
-      <c r="E64" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" t="s">
+      <c r="A65" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="8">
         <v>151813276</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="8">
         <v>151814179</v>
       </c>
-      <c r="E65" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E65" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="s">
+      <c r="A66" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="8">
         <v>156944721</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="8">
         <v>156945645</v>
       </c>
-      <c r="E66" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E66" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s">
+      <c r="A67" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="8">
         <v>183460874</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="8">
         <v>183472265</v>
       </c>
-      <c r="E67" t="s">
-        <v>93</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E67" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="s">
+      <c r="A68" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="8">
         <v>17386936</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="8">
         <v>17413503</v>
       </c>
-      <c r="E68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E68" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" t="s">
+      <c r="A69" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="8">
         <v>181261212</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="8">
         <v>181272307</v>
       </c>
-      <c r="E69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E69" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" t="s">
+      <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="8">
         <v>89711856</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="8">
         <v>89718165</v>
       </c>
-      <c r="E70" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E70" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" t="s">
+      <c r="A71" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="8">
         <v>169213254</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="8">
         <v>169239565</v>
       </c>
-      <c r="E71" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E71" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" t="s">
+      <c r="A72" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="8">
         <v>56477250</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="8">
         <v>56500666</v>
       </c>
-      <c r="E72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E72" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" t="s">
+      <c r="A73" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="8">
         <v>2458935</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="8">
         <v>2462185</v>
       </c>
-      <c r="E73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E73" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" t="s">
+      <c r="A74" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="8">
         <v>782755</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="8">
         <v>785080</v>
       </c>
-      <c r="E74" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E74" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" t="s">
+      <c r="A75" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="8">
         <v>95666084</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="8">
         <v>95668715</v>
       </c>
-      <c r="E75" t="s">
-        <v>92</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E75" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" t="s">
+      <c r="A76" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="8">
         <v>5696220</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="8">
         <v>5708095</v>
       </c>
-      <c r="E76" t="s">
-        <v>92</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E76" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" t="s">
+      <c r="A77" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="8">
         <v>241808312</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="8">
         <v>241812016</v>
       </c>
-      <c r="E77" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="5"/>
+      <c r="E77" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" t="s">
+      <c r="A78" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="8">
         <v>31559245</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="8">
         <v>31560487</v>
       </c>
-      <c r="E78" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E78" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" t="s">
+      <c r="A79" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="8">
         <v>42438023</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="8">
         <v>42446195</v>
       </c>
-      <c r="E79" t="s">
-        <v>92</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" t="s">
+      <c r="A80" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="8">
         <v>29260889</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="8">
         <v>29262037</v>
       </c>
-      <c r="E80" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E80" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" t="s">
+      <c r="A81" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="8">
         <v>74059576</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="8">
         <v>74062284</v>
       </c>
-      <c r="E81" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E81" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" t="s">
+      <c r="A82" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="8">
         <v>14333743</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="8">
         <v>14343916</v>
       </c>
-      <c r="E82" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E82" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" t="s">
+      <c r="A83" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="8">
         <v>168706567</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="8">
         <v>168720884</v>
       </c>
-      <c r="E83" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E83" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" t="s">
+      <c r="A84" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="8">
         <v>53880293</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="8">
         <v>53881051</v>
       </c>
-      <c r="E84" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E84" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" t="s">
+      <c r="A85" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="8">
         <v>38460925</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="8">
         <v>38468339</v>
       </c>
-      <c r="E85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E85" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" t="s">
+      <c r="A86" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="8">
         <v>23075201</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="8">
         <v>23100361</v>
       </c>
-      <c r="E86" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="E86" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" t="s">
+      <c r="A87" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="8">
         <v>60126535</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="8">
         <v>60135644</v>
       </c>
-      <c r="E87" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="E87" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" t="s">
+      <c r="A88" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="8">
         <v>74256896</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="8">
         <v>74262020</v>
       </c>
-      <c r="E88" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E88" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" t="s">
+      <c r="A89" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="8">
         <v>119729583</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="8">
         <v>119739623</v>
       </c>
-      <c r="E89" t="s">
-        <v>92</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E89" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" t="s">
+      <c r="A90" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="8">
         <v>54937786</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="8">
         <v>54938671</v>
       </c>
-      <c r="E90" t="s">
-        <v>93</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="E90" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" t="s">
+      <c r="A91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="8">
         <v>11043524</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="8">
         <v>11078226</v>
       </c>
-      <c r="E91" t="s">
-        <v>92</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="E91" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" t="s">
+      <c r="A92" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="8">
         <v>53962308</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="8">
         <v>53974956</v>
       </c>
-      <c r="E92" t="s">
-        <v>93</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E92" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" t="s">
+      <c r="A93" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="8">
         <v>1571353</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="8">
         <v>1599184</v>
       </c>
-      <c r="E93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E93" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" t="s">
+      <c r="A94" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="8">
         <v>6236240</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="8">
         <v>6239444</v>
       </c>
-      <c r="E94" t="s">
-        <v>92</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E94" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" t="s">
+      <c r="A95" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="8">
         <v>231508426</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="8">
         <v>231514339</v>
       </c>
-      <c r="E95" t="s">
-        <v>93</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E95" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" t="s">
+      <c r="A96" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="8">
         <v>196142636</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="8">
         <v>196160890</v>
       </c>
-      <c r="E96" t="s">
-        <v>92</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E96" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" t="s">
+      <c r="A97" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="8">
         <v>65284499</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="8">
         <v>65576300</v>
       </c>
-      <c r="E97" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E97" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" t="s">
+      <c r="A98" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="8">
         <v>37309185</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="8">
         <v>37347031</v>
       </c>
-      <c r="E98" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E98" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" t="s">
+      <c r="A99" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="8">
         <v>50267486</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="8">
         <v>50279795</v>
       </c>
-      <c r="E99" t="s">
-        <v>92</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E99" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" t="s">
+      <c r="A100" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="8">
         <v>45843651</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="8">
         <v>45895600</v>
       </c>
-      <c r="E100" t="s">
-        <v>93</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E100" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" t="s">
+      <c r="A101" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="8">
         <v>136841726</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="8">
         <v>136862054</v>
       </c>
-      <c r="E101" t="s">
-        <v>93</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E101" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" t="s">
+      <c r="A102" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="8">
         <v>34815767</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="8">
         <v>34816386</v>
       </c>
-      <c r="E102" t="s">
-        <v>92</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E102" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" t="s">
+      <c r="A103" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="8">
         <v>151877042</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="8">
         <v>151879223</v>
       </c>
-      <c r="E103" t="s">
-        <v>92</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E103" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" t="s">
+      <c r="A104" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="8">
         <v>42753914</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="8">
         <v>42761257</v>
       </c>
-      <c r="E104" t="s">
-        <v>93</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="E104" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" t="s">
+      <c r="A105" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="8">
         <v>15112363</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="8">
         <v>15114698</v>
       </c>
-      <c r="E105" t="s">
-        <v>93</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E105" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" t="s">
+      <c r="A106" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="8">
         <v>45435864</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="8">
         <v>45448743</v>
       </c>
-      <c r="E106" t="s">
-        <v>93</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E106" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" t="s">
+      <c r="A107" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="8">
         <v>224615296</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="8">
         <v>224616220</v>
       </c>
-      <c r="E107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E107" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" t="s">
+      <c r="A108" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="8">
         <v>213152970</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="8">
         <v>213153659</v>
       </c>
-      <c r="E108" t="s">
-        <v>92</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E108" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" t="s">
+      <c r="A109" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="8">
         <v>101060029</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="8">
         <v>101061005</v>
       </c>
-      <c r="E109" t="s">
-        <v>93</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E109" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F109" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" t="s">
+      <c r="A110" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="8">
         <v>16888538</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="8">
         <v>16889649</v>
       </c>
-      <c r="E110" t="s">
-        <v>93</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E110" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" t="s">
+      <c r="A111" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="8">
         <v>112964835</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="8">
         <v>112966131</v>
       </c>
-      <c r="E111" t="s">
-        <v>93</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E111" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" t="s">
+      <c r="A112" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="8">
         <v>12668982</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="8">
         <v>12685075</v>
       </c>
-      <c r="E112" t="s">
-        <v>92</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="E112" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" t="s">
+      <c r="A113" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="8">
         <v>149284782</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="8">
         <v>149333653</v>
       </c>
-      <c r="E113" t="s">
-        <v>92</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E113" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" t="s">
+      <c r="A114" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="8">
         <v>76800364</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="8">
         <v>76804555</v>
       </c>
-      <c r="E114" t="s">
-        <v>92</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="E114" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F114" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" t="s">
+      <c r="A115" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="8">
         <v>94637285</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="8">
         <v>94639467</v>
       </c>
-      <c r="E115" t="s">
-        <v>93</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="E115" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" t="s">
+      <c r="A116" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="8">
         <v>39206924</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="8">
         <v>39800318</v>
       </c>
-      <c r="E116" t="s">
-        <v>93</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="E116" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" t="s">
+      <c r="A117" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="8">
         <v>136648610</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="8">
         <v>136660421</v>
       </c>
-      <c r="E117" t="s">
-        <v>93</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="E117" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" t="s">
+      <c r="A118" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="8">
         <v>63313802</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="8">
         <v>63314376</v>
       </c>
-      <c r="E118" t="s">
-        <v>93</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="E118" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" t="s">
+      <c r="A119" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="8">
         <v>101295419</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="8">
         <v>101305737</v>
       </c>
-      <c r="E119" t="s">
-        <v>92</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="E119" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" t="s">
+      <c r="A120" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="8">
         <v>81055301</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="8">
         <v>81056426</v>
       </c>
-      <c r="E120" t="s">
-        <v>92</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="E120" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" t="s">
+      <c r="A121" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="8">
         <v>8784178</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="8">
         <v>8785445</v>
       </c>
-      <c r="E121" t="s">
-        <v>92</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="E121" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" t="s">
+      <c r="A122" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="8">
         <v>63390136</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="8">
         <v>63438320</v>
       </c>
-      <c r="E122" t="s">
-        <v>92</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="E122" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" t="s">
+      <c r="A123" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="8">
         <v>94430633</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="8">
         <v>94464730</v>
       </c>
-      <c r="E123" t="s">
-        <v>92</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="E123" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" t="s">
+      <c r="A124" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="8">
         <v>37564047</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="8">
         <v>37579125</v>
       </c>
-      <c r="E124" t="s">
-        <v>92</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="E124" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" t="s">
+      <c r="A125" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="8">
         <v>16152941</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="8">
         <v>16170869</v>
       </c>
-      <c r="E125" t="s">
-        <v>93</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="E125" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" t="s">
+      <c r="A126" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="8">
         <v>3106764</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="8">
         <v>3109576</v>
       </c>
-      <c r="E126" t="s">
-        <v>92</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="E126" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" t="s">
+      <c r="A127" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="8">
         <v>100115214</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="8">
         <v>100127139</v>
       </c>
-      <c r="E127" t="s">
-        <v>93</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="E127" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F127" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" t="s">
+      <c r="A128" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="8">
         <v>14903580</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="8">
         <v>14915628</v>
       </c>
-      <c r="E128" t="s">
-        <v>92</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="E128" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" t="s">
+      <c r="A129" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="8">
         <v>44744900</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="8">
         <v>44808777</v>
       </c>
-      <c r="E129" t="s">
-        <v>93</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="E129" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" t="s">
+      <c r="A130" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="8">
         <v>75483454</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="8">
         <v>75489820</v>
       </c>
-      <c r="E130" t="s">
-        <v>93</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="E130" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" t="s">
+      <c r="A131" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="8">
         <v>76654169</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="8">
         <v>76656712</v>
       </c>
-      <c r="E131" t="s">
-        <v>93</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="E131" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" t="s">
+      <c r="A132" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="8">
         <v>148850933</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="8">
         <v>148960112</v>
       </c>
-      <c r="E132" t="s">
-        <v>93</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="E132" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" t="s">
+      <c r="A133" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="8">
         <v>138277115</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="8">
         <v>138281784</v>
       </c>
-      <c r="E133" t="s">
-        <v>93</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="E133" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" t="s">
+      <c r="A134" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="8">
         <v>100436204</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="8">
         <v>100438504</v>
       </c>
-      <c r="E134" t="s">
-        <v>92</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="E134" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" t="s">
+      <c r="A135" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="8">
         <v>12984694</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="8">
         <v>12991173</v>
       </c>
-      <c r="E135" t="s">
-        <v>93</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="E135" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F135" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" t="s">
+      <c r="A136" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="8">
         <v>8355090</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="8">
         <v>8358338</v>
       </c>
-      <c r="E136" t="s">
-        <v>93</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="E136" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" t="s">
+      <c r="A137" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="8">
         <v>73307235</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="8">
         <v>73309361</v>
       </c>
-      <c r="E137" t="s">
-        <v>93</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="E137" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" t="s">
+      <c r="A138" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="8">
         <v>58329965</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="8">
         <v>58330118</v>
       </c>
-      <c r="E138" t="s">
-        <v>92</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="E138" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F138" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" t="s">
+      <c r="A139" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="8">
         <v>30648797</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="8">
         <v>30649529</v>
       </c>
-      <c r="E139" t="s">
-        <v>92</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="E139" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" t="s">
+      <c r="A140" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="8">
         <v>82587313</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="8">
         <v>82588411</v>
       </c>
-      <c r="E140" t="s">
-        <v>93</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="E140" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F140" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" t="s">
+      <c r="A141" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="8">
         <v>132186735</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="8">
         <v>132189695</v>
       </c>
-      <c r="E141" t="s">
-        <v>93</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="E141" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" t="s">
+      <c r="A142" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="8">
         <v>43588230</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="8">
         <v>43591362</v>
       </c>
-      <c r="E142" t="s">
-        <v>93</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="E142" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F142" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" t="s">
+      <c r="A143" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="8">
         <v>2549920</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="8">
         <v>2557031</v>
       </c>
-      <c r="E143" t="s">
-        <v>93</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="E143" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" t="s">
+      <c r="A144" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="8">
         <v>46134531</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="8">
         <v>46139081</v>
       </c>
-      <c r="E144" t="s">
-        <v>92</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="E144" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F144" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" t="s">
+      <c r="A145" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="8">
         <v>77067920</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="8">
         <v>77078482</v>
       </c>
-      <c r="E145" t="s">
-        <v>92</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="E145" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" t="s">
+      <c r="A146" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="8">
         <v>229258281</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="8">
         <v>229271028</v>
       </c>
-      <c r="E146" t="s">
-        <v>93</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="E146" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F146" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" t="s">
+      <c r="A147" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="8">
         <v>41831215</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="8">
         <v>41834665</v>
       </c>
-      <c r="E147" t="s">
-        <v>93</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="E147" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F147" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" t="s">
+      <c r="A148" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="8">
         <v>112177234</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="8">
         <v>112360528</v>
       </c>
-      <c r="E148" t="s">
-        <v>93</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="E148" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" t="s">
+      <c r="A149" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="8">
         <v>50266641</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="8">
         <v>50267371</v>
       </c>
-      <c r="E149" t="s">
-        <v>93</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="E149" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F149" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" t="s">
+      <c r="A150" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="8">
         <v>28505980</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="8">
         <v>28510892</v>
       </c>
-      <c r="E150" t="s">
-        <v>92</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="E150" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" t="s">
+      <c r="A151" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="8">
         <v>63423596</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="8">
         <v>63550051</v>
       </c>
-      <c r="E151" t="s">
-        <v>93</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="E151" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F151" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" t="s">
+      <c r="A152" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="8">
         <v>98512973</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="8">
         <v>98516422</v>
       </c>
-      <c r="E152" t="s">
-        <v>93</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="E152" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F152" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" t="s">
+      <c r="A153" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="8">
         <v>30970677</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="8">
         <v>30979395</v>
       </c>
-      <c r="E153" t="s">
-        <v>92</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="E153" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F153" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" t="s">
+      <c r="A154" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="8">
         <v>29497509</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="8">
         <v>29510556</v>
       </c>
-      <c r="E154" t="s">
-        <v>92</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="E154" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" t="s">
+      <c r="A155" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="8">
         <v>72021851</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="8">
         <v>72034092</v>
       </c>
-      <c r="E155" t="s">
-        <v>93</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="E155" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F155" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" t="s">
+      <c r="A156" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="8">
         <v>45238632</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="8">
         <v>45245370</v>
       </c>
-      <c r="E156" t="s">
-        <v>93</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="E156" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F156" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" t="s">
+      <c r="A157" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="8">
         <v>782755</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="8">
         <v>785080</v>
       </c>
-      <c r="E157" t="s">
-        <v>92</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="E157" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F157" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" t="s">
+      <c r="A158" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="8">
         <v>43027853</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="8">
         <v>43039547</v>
       </c>
-      <c r="E158" t="s">
-        <v>93</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="E158" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F158" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" t="s">
+      <c r="A159" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="8">
         <v>154696462</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="8">
         <v>154697817</v>
       </c>
-      <c r="E159" t="s">
-        <v>93</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="E159" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F159" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" t="s">
+      <c r="A160" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="8">
         <v>39619613</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="8">
         <v>39622513</v>
       </c>
-      <c r="E160" t="s">
-        <v>92</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="E160" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F160" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" t="s">
+      <c r="A161" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="8">
         <v>5419827</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="8">
         <v>5420767</v>
       </c>
-      <c r="E161" t="s">
-        <v>92</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="E161" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" t="s">
+      <c r="A162" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="8">
         <v>143379692</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="8">
         <v>143380495</v>
       </c>
-      <c r="E162" t="s">
-        <v>93</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E162" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F162" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" t="s">
+      <c r="A163" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="8">
         <v>35136638</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="8">
         <v>35139222</v>
       </c>
-      <c r="E163" t="s">
-        <v>92</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="E163" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F163" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" t="s">
+      <c r="A164" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="8">
         <v>11104691</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="8">
         <v>11106704</v>
       </c>
-      <c r="E164" t="s">
-        <v>93</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="E164" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F164" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" t="s">
+      <c r="A165" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="8">
         <v>16630827</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="8">
         <v>16640683</v>
       </c>
-      <c r="E165" t="s">
-        <v>92</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="E165" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F165" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" t="s">
+      <c r="A166" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="8">
         <v>25102433</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="8">
         <v>25112692</v>
       </c>
-      <c r="E166" t="s">
-        <v>93</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="E166" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F166" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" t="s">
+      <c r="A167" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="8">
         <v>53880293</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="8">
         <v>53881051</v>
       </c>
-      <c r="E167" t="s">
-        <v>93</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="E167" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F167" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" t="s">
+      <c r="A168" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="8">
         <v>103875055</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="8">
         <v>103877478</v>
       </c>
-      <c r="E168" t="s">
-        <v>92</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="E168" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F168" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" t="s">
+      <c r="A169" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="8">
         <v>43014414</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="8">
         <v>43067419</v>
       </c>
-      <c r="E169" t="s">
-        <v>93</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="E169" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F169" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" t="s">
+      <c r="A170" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="8">
         <v>92151</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="8">
         <v>139863</v>
       </c>
-      <c r="E170" t="s">
-        <v>92</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="E170" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F170" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" t="s">
+      <c r="A171" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="8">
         <v>23075201</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="8">
         <v>23100361</v>
       </c>
-      <c r="E171" t="s">
-        <v>92</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="E171" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F171" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" t="s">
+      <c r="A172" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="8">
         <v>1761990</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="8">
         <v>1764502</v>
       </c>
-      <c r="E172" t="s">
-        <v>93</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="E172" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F172" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" t="s">
+      <c r="A173" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="8">
         <v>48963975</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="8">
         <v>48965158</v>
       </c>
-      <c r="E173" t="s">
-        <v>92</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="E173" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F173" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" t="s">
+      <c r="A174" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="8">
         <v>49982552</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="8">
         <v>50125720</v>
       </c>
-      <c r="E174" t="s">
-        <v>93</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="E174" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F174" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" t="s">
+      <c r="A175" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="8">
         <v>99087819</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="8">
         <v>99088625</v>
       </c>
-      <c r="E175" t="s">
-        <v>92</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="E175" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F175" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" t="s">
+      <c r="A176" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="8">
         <v>40383083</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="8">
         <v>40385358</v>
       </c>
-      <c r="E176" t="s">
-        <v>92</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="E176" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" t="s">
+      <c r="A177" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="8">
         <v>53962308</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="8">
         <v>53974956</v>
       </c>
-      <c r="E177" t="s">
-        <v>93</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="E177" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F177" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" t="s">
+      <c r="A178" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="8">
         <v>21661934</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="8">
         <v>21662363</v>
       </c>
-      <c r="E178" t="s">
-        <v>92</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="E178" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F178" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" t="s">
+      <c r="A179" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="8">
         <v>44694892</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="8">
         <v>44746021</v>
       </c>
-      <c r="E179" t="s">
-        <v>93</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="E179" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F179" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" t="s">
+      <c r="A180" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="8">
         <v>211382803</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="8">
         <v>211435333</v>
       </c>
-      <c r="E180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="E180" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F180" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" t="s">
+      <c r="A181" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="8">
         <v>117415509</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="8">
         <v>117546298</v>
       </c>
-      <c r="E181" t="s">
-        <v>92</v>
-      </c>
-      <c r="F181" t="s">
+      <c r="E181" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F181" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" t="s">
+      <c r="A182" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="8">
         <v>209428820</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="8">
         <v>209432838</v>
       </c>
-      <c r="E182" t="s">
-        <v>92</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="E182" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F182" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" t="s">
+      <c r="A183" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="8">
         <v>16070522</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="8">
         <v>16627397</v>
       </c>
-      <c r="E183" t="s">
-        <v>92</v>
-      </c>
-      <c r="F183" t="s">
+      <c r="E183" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F183" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" t="s">
+      <c r="A184" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="8">
         <v>9672426</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="8">
         <v>9687555</v>
       </c>
-      <c r="E184" t="s">
-        <v>93</v>
-      </c>
-      <c r="F184" t="s">
+      <c r="E184" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F184" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" t="s">
+      <c r="A185" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="8">
         <v>127794533</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="8">
         <v>128101253</v>
       </c>
-      <c r="E185" t="s">
-        <v>92</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="E185" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F185" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" t="s">
+      <c r="A186" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="8">
         <v>40340867</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="8">
         <v>40343136</v>
       </c>
-      <c r="E186" t="s">
-        <v>93</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="E186" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F186" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" t="s">
+      <c r="A187" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="8">
         <v>45435864</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="8">
         <v>45448743</v>
       </c>
-      <c r="E187" t="s">
-        <v>93</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="E187" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F187" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" t="s">
+      <c r="A188" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="8">
         <v>5451683</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="8">
         <v>5458075</v>
       </c>
-      <c r="E188" t="s">
-        <v>93</v>
-      </c>
-      <c r="F188" t="s">
+      <c r="E188" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F188" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" t="s">
+      <c r="A189" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="8">
         <v>16888538</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="8">
         <v>16889649</v>
       </c>
-      <c r="E189" t="s">
-        <v>93</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="E189" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F189" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" t="s">
+      <c r="A190" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="8">
         <v>112964835</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="8">
         <v>112966131</v>
       </c>
-      <c r="E190" t="s">
-        <v>93</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="E190" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F190" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" t="s">
+      <c r="A191" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="8">
         <v>104474939</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="8">
         <v>104480274</v>
       </c>
-      <c r="E191" t="s">
-        <v>93</v>
-      </c>
-      <c r="F191" t="s">
+      <c r="E191" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F191" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" t="s">
+      <c r="A192" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="8">
         <v>2181794</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="8">
         <v>2184389</v>
       </c>
-      <c r="E192" t="s">
-        <v>93</v>
-      </c>
-      <c r="F192" t="s">
+      <c r="E192" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F192" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" t="s">
+      <c r="A193" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="8">
         <v>76800364</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="8">
         <v>76804555</v>
       </c>
-      <c r="E193" t="s">
-        <v>92</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="E193" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F193" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" t="s">
+      <c r="A194" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="8">
         <v>94637285</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="8">
         <v>94639467</v>
       </c>
-      <c r="E194" t="s">
-        <v>93</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="E194" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F194" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" t="s">
+      <c r="A195" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="8">
         <v>39206924</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="8">
         <v>39800318</v>
       </c>
-      <c r="E195" t="s">
-        <v>93</v>
-      </c>
-      <c r="F195" t="s">
+      <c r="E195" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F195" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" t="s">
+      <c r="A196" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="8">
         <v>136648610</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="8">
         <v>136660421</v>
       </c>
-      <c r="E196" t="s">
-        <v>93</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="E196" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F196" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" t="s">
+      <c r="A197" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="8">
         <v>69463026</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="8">
         <v>69571440</v>
       </c>
-      <c r="E197" t="s">
-        <v>92</v>
-      </c>
-      <c r="F197" t="s">
+      <c r="E197" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F197" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" t="s">
+      <c r="A198" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="8">
         <v>26211164</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="8">
         <v>26335856</v>
       </c>
-      <c r="E198" t="s">
-        <v>93</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="E198" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F198" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" t="s">
+      <c r="A199" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="8">
         <v>8784178</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="8">
         <v>8785445</v>
       </c>
-      <c r="E199" t="s">
-        <v>92</v>
-      </c>
-      <c r="F199" t="s">
+      <c r="E199" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F199" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" t="s">
+      <c r="A200" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="8">
         <v>37564047</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="8">
         <v>37579125</v>
       </c>
-      <c r="E200" t="s">
-        <v>92</v>
-      </c>
-      <c r="F200" t="s">
+      <c r="E200" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F200" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" t="s">
+      <c r="A201" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="8">
         <v>37556158</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="8">
         <v>37567095</v>
       </c>
-      <c r="E201" t="s">
-        <v>93</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="E201" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F201" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" t="s">
+      <c r="A202" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="8">
         <v>226800146</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="8">
         <v>226811029</v>
       </c>
-      <c r="E202" t="s">
-        <v>92</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="E202" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F202" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" t="s">
+      <c r="A203" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="8">
         <v>50645809</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="8">
         <v>50649249</v>
       </c>
-      <c r="E203" t="s">
-        <v>92</v>
-      </c>
-      <c r="F203" t="s">
+      <c r="E203" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F203" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" t="s">
+      <c r="A204" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="8">
         <v>143758153</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="8">
         <v>143771822</v>
       </c>
-      <c r="E204" t="s">
-        <v>93</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="E204" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F204" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" t="s">
+      <c r="A205" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="8">
         <v>22690150</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="8">
         <v>22798616</v>
       </c>
-      <c r="E205" t="s">
-        <v>92</v>
-      </c>
-      <c r="F205" t="s">
+      <c r="E205" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F205" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" t="s">
+      <c r="A206" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="8">
         <v>102642792</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="8">
         <v>102644140</v>
       </c>
-      <c r="E206" t="s">
-        <v>93</v>
-      </c>
-      <c r="F206" t="s">
+      <c r="E206" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F206" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" t="s">
+      <c r="A207" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="8">
         <v>11341809</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="8">
         <v>11345211</v>
       </c>
-      <c r="E207" t="s">
-        <v>93</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="E207" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F207" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" t="s">
+      <c r="A208" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="8">
         <v>100115214</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="8">
         <v>100127139</v>
       </c>
-      <c r="E208" t="s">
-        <v>93</v>
-      </c>
-      <c r="F208" t="s">
+      <c r="E208" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F208" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" t="s">
+      <c r="A209" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="8">
         <v>88551597</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="8">
         <v>88552493</v>
       </c>
-      <c r="E209" t="s">
-        <v>92</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="E209" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" t="s">
+      <c r="A210" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="8">
         <v>44744900</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="8">
         <v>44808777</v>
       </c>
-      <c r="E210" t="s">
-        <v>93</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="E210" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F210" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" t="s">
+      <c r="A211" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="8">
         <v>37509150</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="8">
         <v>37510299</v>
       </c>
-      <c r="E211" t="s">
-        <v>92</v>
-      </c>
-      <c r="F211" t="s">
+      <c r="E211" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F211" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" t="s">
+      <c r="A212" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="8">
         <v>133573183</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="8">
         <v>133573861</v>
       </c>
-      <c r="E212" t="s">
-        <v>92</v>
-      </c>
-      <c r="F212" t="s">
+      <c r="E212" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F212" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" t="s">
+      <c r="A213" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="8">
         <v>63367328</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="8">
         <v>63381629</v>
       </c>
-      <c r="E213" t="s">
-        <v>92</v>
-      </c>
-      <c r="F213" t="s">
+      <c r="E213" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F213" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" t="s">
+      <c r="A214" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="8">
         <v>148850933</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="8">
         <v>148960112</v>
       </c>
-      <c r="E214" t="s">
-        <v>93</v>
-      </c>
-      <c r="F214" t="s">
+      <c r="E214" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F214" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" t="s">
+      <c r="A215" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="8">
         <v>12984694</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="8">
         <v>12991173</v>
       </c>
-      <c r="E215" t="s">
-        <v>93</v>
-      </c>
-      <c r="F215" t="s">
+      <c r="E215" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F215" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" t="s">
+      <c r="A216" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="8">
         <v>8355090</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="8">
         <v>8358338</v>
       </c>
-      <c r="E216" t="s">
-        <v>93</v>
-      </c>
-      <c r="F216" t="s">
+      <c r="E216" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" t="s">
+      <c r="A217" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="8">
         <v>80032724</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="8">
         <v>80033300</v>
       </c>
-      <c r="E217" t="s">
-        <v>93</v>
-      </c>
-      <c r="F217" t="s">
+      <c r="E217" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F217" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" t="s">
+      <c r="A218" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="8">
         <v>52245048</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="8">
         <v>52247448</v>
       </c>
-      <c r="E218" t="s">
-        <v>93</v>
-      </c>
-      <c r="F218" t="s">
+      <c r="E218" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F218" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" t="s">
+      <c r="A219" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="8">
         <v>151813276</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="8">
         <v>151814179</v>
       </c>
-      <c r="E219" t="s">
-        <v>93</v>
-      </c>
-      <c r="F219" t="s">
+      <c r="E219" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F219" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" t="s">
+      <c r="A220" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="8">
         <v>229258281</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="8">
         <v>229271028</v>
       </c>
-      <c r="E220" t="s">
-        <v>93</v>
-      </c>
-      <c r="F220" t="s">
+      <c r="E220" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F220" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" t="s">
+      <c r="A221" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="8">
         <v>12004402</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="8">
         <v>12191400</v>
       </c>
-      <c r="E221" t="s">
-        <v>92</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="E221" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F221" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" t="s">
+      <c r="A222" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="8">
         <v>5558167</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="8">
         <v>5568034</v>
       </c>
-      <c r="E222" t="s">
-        <v>93</v>
-      </c>
-      <c r="F222" t="s">
+      <c r="E222" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F222" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" t="s">
+      <c r="A223" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="8">
         <v>98512973</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="8">
         <v>98516422</v>
       </c>
-      <c r="E223" t="s">
-        <v>93</v>
-      </c>
-      <c r="F223" t="s">
+      <c r="E223" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F223" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" t="s">
+      <c r="A224" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="8">
         <v>16601887</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="8">
         <v>16698742</v>
       </c>
-      <c r="E224" t="s">
-        <v>92</v>
-      </c>
-      <c r="F224" t="s">
+      <c r="E224" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F224" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" t="s">
+      <c r="A225" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="8">
         <v>44400250</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="8">
         <v>44405984</v>
       </c>
-      <c r="E225" t="s">
-        <v>93</v>
-      </c>
-      <c r="F225" t="s">
+      <c r="E225" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F225" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" t="s">
+      <c r="A226" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="8">
         <v>56477250</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="8">
         <v>56500666</v>
       </c>
-      <c r="E226" t="s">
-        <v>92</v>
-      </c>
-      <c r="F226" t="s">
+      <c r="E226" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F226" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" t="s">
+      <c r="A227" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="8">
         <v>215718043</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="8">
         <v>215719424</v>
       </c>
-      <c r="E227" t="s">
-        <v>92</v>
-      </c>
-      <c r="F227" t="s">
+      <c r="E227" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F227" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" t="s">
+      <c r="A228" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="8">
         <v>120490328</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="8">
         <v>120495940</v>
       </c>
-      <c r="E228" t="s">
-        <v>93</v>
-      </c>
-      <c r="F228" t="s">
+      <c r="E228" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F228" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" t="s">
+      <c r="A229" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="8">
         <v>143734140</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="8">
         <v>143746337</v>
       </c>
-      <c r="E229" t="s">
-        <v>92</v>
-      </c>
-      <c r="F229" t="s">
+      <c r="E229" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F229" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" t="s">
+      <c r="A230" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="8">
         <v>63320884</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="8">
         <v>63324441</v>
       </c>
-      <c r="E230" t="s">
-        <v>93</v>
-      </c>
-      <c r="F230" t="s">
+      <c r="E230" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F230" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" t="s">
+      <c r="A231" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="8">
         <v>180269653</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="8">
         <v>180502954</v>
       </c>
-      <c r="E231" t="s">
-        <v>93</v>
-      </c>
-      <c r="F231" t="s">
+      <c r="E231" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F231" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" t="s">
+      <c r="A232" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="8">
         <v>135421943</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="8">
         <v>135428074</v>
       </c>
-      <c r="E232" t="s">
-        <v>92</v>
-      </c>
-      <c r="F232" t="s">
+      <c r="E232" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F232" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" t="s">
+      <c r="A233" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="8">
         <v>211382803</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="8">
         <v>211435333</v>
       </c>
-      <c r="E233" t="s">
-        <v>92</v>
-      </c>
-      <c r="F233" t="s">
+      <c r="E233" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F233" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" t="s">
+      <c r="A234" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="8">
         <v>131637025</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="8">
         <v>131649615</v>
       </c>
-      <c r="E234" t="s">
-        <v>92</v>
-      </c>
-      <c r="F234" t="s">
+      <c r="E234" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F234" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" t="s">
+      <c r="A235" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="8">
         <v>209428820</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="8">
         <v>209432838</v>
       </c>
-      <c r="E235" t="s">
-        <v>92</v>
-      </c>
-      <c r="F235" t="s">
+      <c r="E235" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F235" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" t="s">
+      <c r="A236" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="8">
         <v>43571594</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="8">
         <v>43603230</v>
       </c>
-      <c r="E236" t="s">
-        <v>93</v>
-      </c>
-      <c r="F236" t="s">
+      <c r="E236" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F236" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" t="s">
+      <c r="A237" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="8">
         <v>630891</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="8">
         <v>663706</v>
       </c>
-      <c r="E237" t="s">
-        <v>92</v>
-      </c>
-      <c r="F237" t="s">
+      <c r="E237" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F237" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" t="s">
+      <c r="A238" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="8">
         <v>149430286</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="8">
         <v>149432834</v>
       </c>
-      <c r="E238" t="s">
-        <v>92</v>
-      </c>
-      <c r="F238" t="s">
+      <c r="E238" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F238" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" t="s">
+      <c r="A239" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="8">
         <v>8970125</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="8">
         <v>8973468</v>
       </c>
-      <c r="E239" t="s">
-        <v>92</v>
-      </c>
-      <c r="F239" t="s">
+      <c r="E239" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F239" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" t="s">
+      <c r="A240" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="8">
         <v>14302288</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="8">
         <v>14326353</v>
       </c>
-      <c r="E240" t="s">
-        <v>92</v>
-      </c>
-      <c r="F240" t="s">
+      <c r="E240" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F240" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" t="s">
+      <c r="A241" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="8">
         <v>129783370</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="8">
         <v>129785185</v>
       </c>
-      <c r="E241" t="s">
-        <v>93</v>
-      </c>
-      <c r="F241" t="s">
+      <c r="E241" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F241" s="8" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>